--- a/twitter_tracker_updated.xlsx
+++ b/twitter_tracker_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/67matrix/Documents/GitHub/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE62C48F-7E43-354F-94D6-FC389C61CA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDCE680-A529-AC4A-8121-B43FDB639866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="1860" windowWidth="28080" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6140" yWindow="1860" windowWidth="28080" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="follower_tracker" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Twitter</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>@elliptic</t>
+  </si>
+  <si>
+    <t>2023-01-06 23:30:32</t>
+  </si>
+  <si>
+    <t>2023-01-07 23:30:40</t>
   </si>
   <si>
     <t>粉丝增长</t>
@@ -217,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -236,7 +242,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,50 +347,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.0184531612382777E-2</c:v>
+                  <c:v>0.11491181186531267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8121628024270581E-3</c:v>
+                  <c:v>1.3629136064208375E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6366439296348699E-2</c:v>
+                  <c:v>8.4591385916790544E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1763271906641084E-2</c:v>
+                  <c:v>3.0817249049293248E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2639367498472065E-2</c:v>
+                  <c:v>2.4408212947243664E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3765637656376564E-2</c:v>
+                  <c:v>3.9148081874918167E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5494115449280776E-3</c:v>
+                  <c:v>9.6910060009691007E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.639782550574815E-2</c:v>
+                  <c:v>5.9350454505339338E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4803945921010609E-2</c:v>
+                  <c:v>4.6603832643550237E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4728779771272686E-2</c:v>
+                  <c:v>5.1966578357448539E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9698248804034895E-3</c:v>
+                  <c:v>1.9913850949154744E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.708281829419036E-3</c:v>
+                  <c:v>3.4563634119244538E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.6647930505876344E-4</c:v>
+                  <c:v>-5.9569398349076669E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F0D7-6A4E-9B65-EFFF0D7B3533}"/>
+              <c16:uniqueId val="{00000000-FEC4-B64A-8C1C-4A632C7D3D73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -645,31 +650,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -688,7 +693,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C99-BA48-82DD-0256115B2364}"/>
+              <c16:uniqueId val="{00000000-2CE3-C64B-A2A0-37BD5A4A06BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1199,15 +1204,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3147,179 +3152,267 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="8">
+      <c r="A45" s="6">
         <v>44928</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>9376</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>66031</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>47790</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>168693</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>156975</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45">
         <v>23138</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45">
         <v>26841</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>45477</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45">
         <v>28797</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45">
         <v>9850</v>
       </c>
-      <c r="L45" s="1">
+      <c r="L45">
         <v>46224</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
         <v>8102</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45">
         <v>11753</v>
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>44929</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>9498</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>66071</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>47816</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>169502</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46">
         <v>157474</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46">
         <v>23371</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46">
         <v>26845</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>45541</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46">
         <v>28836</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46">
         <v>9861</v>
       </c>
-      <c r="L46" s="1">
+      <c r="L46">
         <v>46240</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
         <v>8113</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46">
         <v>11757</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="8">
+      <c r="A47" s="6">
         <v>44930</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>9685</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>66095</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>48054</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>170169</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47">
         <v>157902</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47">
         <v>23504</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47">
         <v>26857</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>45575</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47">
         <v>28877</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47">
         <v>9850</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
         <v>46275</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
         <v>8121</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47">
         <v>11754</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <v>44931</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>10018</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>66071</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>48128</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>170990</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48">
         <v>158822</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48">
         <v>23639</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48">
         <v>26860</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>45620</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48">
         <v>28880</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48">
         <v>9862</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
         <v>46288</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48">
         <v>8120</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N48">
         <v>11751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>10211</v>
+      </c>
+      <c r="C49">
+        <v>66081</v>
+      </c>
+      <c r="D49">
+        <v>48135</v>
+      </c>
+      <c r="E49">
+        <v>171590</v>
+      </c>
+      <c r="F49">
+        <v>159337</v>
+      </c>
+      <c r="G49">
+        <v>23733</v>
+      </c>
+      <c r="H49">
+        <v>26858</v>
+      </c>
+      <c r="I49">
+        <v>45610</v>
+      </c>
+      <c r="J49">
+        <v>28890</v>
+      </c>
+      <c r="K49">
+        <v>9864</v>
+      </c>
+      <c r="L49">
+        <v>46290</v>
+      </c>
+      <c r="M49">
+        <v>8123</v>
+      </c>
+      <c r="N49">
+        <v>11754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>10430</v>
+      </c>
+      <c r="C50">
+        <v>66125</v>
+      </c>
+      <c r="D50">
+        <v>48163</v>
+      </c>
+      <c r="E50">
+        <v>172398</v>
+      </c>
+      <c r="F50">
+        <v>159905</v>
+      </c>
+      <c r="G50">
+        <v>23810</v>
+      </c>
+      <c r="H50">
+        <v>26855</v>
+      </c>
+      <c r="I50">
+        <v>45593</v>
+      </c>
+      <c r="J50">
+        <v>28887</v>
+      </c>
+      <c r="K50">
+        <v>9865</v>
+      </c>
+      <c r="L50">
+        <v>46291</v>
+      </c>
+      <c r="M50">
+        <v>8129</v>
+      </c>
+      <c r="N50">
+        <v>11744</v>
       </c>
     </row>
   </sheetData>
@@ -3333,15 +3426,15 @@
   <dimension ref="A1:N599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B43:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:14" ht="65" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5968,55 +6061,55 @@
       </c>
       <c r="B48" s="4">
         <f>IF(OR(follower_tracker!B49=0,follower_tracker!B48=0),0,follower_tracker!B49-follower_tracker!B48)</f>
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="C48" s="4">
         <f>IF(OR(follower_tracker!C49=0,follower_tracker!C48=0),0,follower_tracker!C49-follower_tracker!C48)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D48" s="4">
         <f>IF(OR(follower_tracker!D49=0,follower_tracker!D48=0),0,follower_tracker!D49-follower_tracker!D48)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E48" s="4">
         <f>IF(OR(follower_tracker!E49=0,follower_tracker!E48=0),0,follower_tracker!E49-follower_tracker!E48)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F48" s="4">
         <f>IF(OR(follower_tracker!F49=0,follower_tracker!F48=0),0,follower_tracker!F49-follower_tracker!F48)</f>
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="G48" s="4">
         <f>IF(OR(follower_tracker!G49=0,follower_tracker!G48=0),0,follower_tracker!G49-follower_tracker!G48)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H48" s="4">
         <f>IF(OR(follower_tracker!H49=0,follower_tracker!H48=0),0,follower_tracker!H49-follower_tracker!H48)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I48" s="4">
         <f>IF(OR(follower_tracker!I49=0,follower_tracker!I48=0),0,follower_tracker!I49-follower_tracker!I48)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J48" s="4">
         <f>IF(OR(follower_tracker!J49=0,follower_tracker!J48=0),0,follower_tracker!J49-follower_tracker!J48)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K48" s="4">
         <f>IF(OR(follower_tracker!K49=0,follower_tracker!K48=0),0,follower_tracker!K49-follower_tracker!K48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" s="4">
         <f>IF(OR(follower_tracker!L49=0,follower_tracker!L48=0),0,follower_tracker!L49-follower_tracker!L48)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" s="4">
         <f>IF(OR(follower_tracker!M49=0,follower_tracker!M48=0),0,follower_tracker!M49-follower_tracker!M48)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N48" s="4">
         <f>IF(OR(follower_tracker!N49=0,follower_tracker!N48=0),0,follower_tracker!N49-follower_tracker!N48)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -6025,55 +6118,55 @@
       </c>
       <c r="B49" s="4">
         <f>IF(OR(follower_tracker!B50=0,follower_tracker!B49=0),0,follower_tracker!B50-follower_tracker!B49)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="C49" s="4">
         <f>IF(OR(follower_tracker!C50=0,follower_tracker!C49=0),0,follower_tracker!C50-follower_tracker!C49)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D49" s="4">
         <f>IF(OR(follower_tracker!D50=0,follower_tracker!D49=0),0,follower_tracker!D50-follower_tracker!D49)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E49" s="4">
         <f>IF(OR(follower_tracker!E50=0,follower_tracker!E49=0),0,follower_tracker!E50-follower_tracker!E49)</f>
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="F49" s="4">
         <f>IF(OR(follower_tracker!F50=0,follower_tracker!F49=0),0,follower_tracker!F50-follower_tracker!F49)</f>
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="G49" s="4">
         <f>IF(OR(follower_tracker!G50=0,follower_tracker!G49=0),0,follower_tracker!G50-follower_tracker!G49)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H49" s="4">
         <f>IF(OR(follower_tracker!H50=0,follower_tracker!H49=0),0,follower_tracker!H50-follower_tracker!H49)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I49" s="4">
         <f>IF(OR(follower_tracker!I50=0,follower_tracker!I49=0),0,follower_tracker!I50-follower_tracker!I49)</f>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="J49" s="4">
         <f>IF(OR(follower_tracker!J50=0,follower_tracker!J49=0),0,follower_tracker!J50-follower_tracker!J49)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="K49" s="4">
         <f>IF(OR(follower_tracker!K50=0,follower_tracker!K49=0),0,follower_tracker!K50-follower_tracker!K49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="4">
         <f>IF(OR(follower_tracker!L50=0,follower_tracker!L49=0),0,follower_tracker!L50-follower_tracker!L49)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4">
         <f>IF(OR(follower_tracker!M50=0,follower_tracker!M49=0),0,follower_tracker!M50-follower_tracker!M49)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N49" s="4">
         <f>IF(OR(follower_tracker!N50=0,follower_tracker!N49=0),0,follower_tracker!N50-follower_tracker!N49)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -26131,8 +26224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26180,245 +26273,245 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-12</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>748</v>
+      </c>
+      <c r="E2">
+        <v>422</v>
+      </c>
+      <c r="F2">
+        <v>121</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>288</v>
-      </c>
-      <c r="C2">
-        <v>117</v>
-      </c>
-      <c r="D2">
-        <v>209</v>
-      </c>
-      <c r="E2">
-        <v>129</v>
-      </c>
-      <c r="F2">
-        <v>148</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
       <c r="H2">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="I2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>764</v>
+        <v>701</v>
       </c>
       <c r="E3">
-        <v>543</v>
+        <v>458</v>
       </c>
       <c r="F3">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I3">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="B4">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>520</v>
+        <v>809</v>
       </c>
       <c r="E4">
-        <v>756</v>
+        <v>499</v>
       </c>
       <c r="F4">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I4">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="J4">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="M4">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>644</v>
+        <v>667</v>
       </c>
       <c r="E5">
-        <v>1222</v>
+        <v>428</v>
       </c>
       <c r="F5">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="I5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>973</v>
+        <v>821</v>
       </c>
       <c r="E6">
-        <v>1049</v>
+        <v>920</v>
       </c>
       <c r="F6">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I6">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>1124</v>
+        <v>600</v>
       </c>
       <c r="E7">
-        <v>792</v>
+        <v>515</v>
       </c>
       <c r="F7">
-        <v>347</v>
+        <v>94</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="H7">
-        <v>143</v>
+        <v>-10</v>
       </c>
       <c r="I7">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -26426,126 +26519,126 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>1030</v>
+        <v>808</v>
       </c>
       <c r="E8">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="F8">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>-3</v>
       </c>
       <c r="H8">
-        <v>70</v>
+        <v>-17</v>
       </c>
       <c r="I8">
-        <v>62</v>
+        <v>-3</v>
       </c>
       <c r="J8">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
         <f>SUM(A2:A8)/(LOOKUP(9.99E+307, follower_tracker!B:B)-SUM(A2:A8))</f>
-        <v>1.0184531612382777E-2</v>
+        <v>0.11491181186531267</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B8)/(LOOKUP(9.99E+307, follower_tracker!C:C)-SUM(B2:B8))</f>
-        <v>9.8121628024270581E-3</v>
+        <v>1.3629136064208375E-3</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)/(LOOKUP(9.99E+307, follower_tracker!D:D)-SUM(C2:C8))</f>
-        <v>1.6366439296348699E-2</v>
+        <v>8.4591385916790544E-3</v>
       </c>
       <c r="D9">
         <f>SUM(D2:D8)/(LOOKUP(9.99E+307, follower_tracker!E:E)-SUM(D2:D8))</f>
-        <v>3.1763271906641084E-2</v>
+        <v>3.0817249049293248E-2</v>
       </c>
       <c r="E9">
         <f>SUM(E2:E8)/(LOOKUP(9.99E+307, follower_tracker!F:F)-SUM(E2:E8))</f>
-        <v>3.2639367498472065E-2</v>
+        <v>2.4408212947243664E-2</v>
       </c>
       <c r="F9">
         <f>SUM(F2:F8)/(LOOKUP(9.99E+307, follower_tracker!G:G)-SUM(F2:F8))</f>
-        <v>6.3765637656376564E-2</v>
+        <v>3.9148081874918167E-2</v>
       </c>
       <c r="G9">
         <f>SUM(G2:G8)/(LOOKUP(9.99E+307, follower_tracker!H:H)-SUM(G2:G8))</f>
-        <v>3.5494115449280776E-3</v>
+        <v>9.6910060009691007E-4</v>
       </c>
       <c r="H9">
         <f>SUM(H2:H8)/(LOOKUP(9.99E+307, follower_tracker!I:I)-SUM(H2:H8))</f>
-        <v>1.639782550574815E-2</v>
+        <v>5.9350454505339338E-3</v>
       </c>
       <c r="I9">
         <f>SUM(I2:I8)/(LOOKUP(9.99E+307, follower_tracker!J:J)-SUM(I2:I8))</f>
-        <v>2.4803945921010609E-2</v>
+        <v>4.6603832643550237E-3</v>
       </c>
       <c r="J9">
         <f>SUM(J2:J8)/(LOOKUP(9.99E+307, follower_tracker!K:K)-SUM(J2:J8))</f>
-        <v>3.4728779771272686E-2</v>
+        <v>5.1966578357448539E-3</v>
       </c>
       <c r="K9">
         <f>SUM(K2:K8)/(LOOKUP(9.99E+307, follower_tracker!L:L)-SUM(K2:K8))</f>
-        <v>1.9698248804034895E-3</v>
+        <v>1.9913850949154744E-3</v>
       </c>
       <c r="L9">
         <f>SUM(L2:L8)/(LOOKUP(9.99E+307, follower_tracker!M:M)-SUM(L2:L8))</f>
-        <v>3.708281829419036E-3</v>
+        <v>3.4563634119244538E-3</v>
       </c>
       <c r="M9">
         <f>SUM(M2:M8)/(LOOKUP(9.99E+307, follower_tracker!N:N)-SUM(M2:M8))</f>
-        <v>7.6647930505876344E-4</v>
+        <v>-5.9569398349076669E-4</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>

--- a/twitter_tracker_updated.xlsx
+++ b/twitter_tracker_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/67matrix/Documents/GitHub/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDCE680-A529-AC4A-8121-B43FDB639866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A4861E-3D55-764E-A6CA-D766D0B838B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="1860" windowWidth="28080" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Twitter</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>2023-01-07 23:30:40</t>
+  </si>
+  <si>
+    <t>2023-01-08 23:30:47</t>
   </si>
   <si>
     <t>粉丝增长</t>
@@ -273,6 +276,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>粉丝增长率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -347,50 +374,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.11491181186531267</c:v>
+                  <c:v>0.11345646437994723</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3629136064208375E-3</c:v>
+                  <c:v>1.3629755270172037E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4591385916790544E-3</c:v>
+                  <c:v>8.4554206781079951E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0817249049293248E-2</c:v>
+                  <c:v>3.06888010289144E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4408212947243664E-2</c:v>
+                  <c:v>2.4337116977853863E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9148081874918167E-2</c:v>
+                  <c:v>3.9001695725901127E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6910060009691007E-4</c:v>
+                  <c:v>9.6888392025340042E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9350454505339338E-3</c:v>
+                  <c:v>5.9322968353732498E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6603832643550237E-3</c:v>
+                  <c:v>4.6624913013221993E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1966578357448539E-3</c:v>
+                  <c:v>5.195069776917592E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9913850949154744E-3</c:v>
+                  <c:v>1.9909972299168976E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4563634119244538E-3</c:v>
+                  <c:v>3.455936805726981E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.9569398349076669E-4</c:v>
+                  <c:v>-5.9544062606328686E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEC4-B64A-8C1C-4A632C7D3D73}"/>
+              <c16:uniqueId val="{00000000-1B2B-BE4D-AC93-EC1C47AD74F3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -555,13 +582,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US">
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
               <a:t>热推数目周统计</a:t>
             </a:r>
           </a:p>
@@ -693,7 +723,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CE3-C64B-A2A0-37BD5A4A06BA}"/>
+              <c16:uniqueId val="{00000000-8556-0F40-AB30-21AD06EC66DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1204,16 +1234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="7" t="s">
@@ -3413,6 +3438,50 @@
       </c>
       <c r="N50">
         <v>11744</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>10550</v>
+      </c>
+      <c r="C51">
+        <v>66122</v>
+      </c>
+      <c r="D51">
+        <v>48184</v>
+      </c>
+      <c r="E51">
+        <v>173098</v>
+      </c>
+      <c r="F51">
+        <v>160361</v>
+      </c>
+      <c r="G51">
+        <v>23896</v>
+      </c>
+      <c r="H51">
+        <v>26861</v>
+      </c>
+      <c r="I51">
+        <v>45614</v>
+      </c>
+      <c r="J51">
+        <v>28874</v>
+      </c>
+      <c r="K51">
+        <v>9868</v>
+      </c>
+      <c r="L51">
+        <v>46300</v>
+      </c>
+      <c r="M51">
+        <v>8130</v>
+      </c>
+      <c r="N51">
+        <v>11749</v>
       </c>
     </row>
   </sheetData>
@@ -3434,7 +3503,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="65" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6175,55 +6244,55 @@
       </c>
       <c r="B50" s="4">
         <f>IF(OR(follower_tracker!B51=0,follower_tracker!B50=0),0,follower_tracker!B51-follower_tracker!B50)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C50" s="4">
         <f>IF(OR(follower_tracker!C51=0,follower_tracker!C50=0),0,follower_tracker!C51-follower_tracker!C50)</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D50" s="4">
         <f>IF(OR(follower_tracker!D51=0,follower_tracker!D50=0),0,follower_tracker!D51-follower_tracker!D50)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E50" s="4">
         <f>IF(OR(follower_tracker!E51=0,follower_tracker!E50=0),0,follower_tracker!E51-follower_tracker!E50)</f>
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F50" s="4">
         <f>IF(OR(follower_tracker!F51=0,follower_tracker!F50=0),0,follower_tracker!F51-follower_tracker!F50)</f>
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="G50" s="4">
         <f>IF(OR(follower_tracker!G51=0,follower_tracker!G50=0),0,follower_tracker!G51-follower_tracker!G50)</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H50" s="4">
         <f>IF(OR(follower_tracker!H51=0,follower_tracker!H50=0),0,follower_tracker!H51-follower_tracker!H50)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I50" s="4">
         <f>IF(OR(follower_tracker!I51=0,follower_tracker!I50=0),0,follower_tracker!I51-follower_tracker!I50)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J50" s="4">
         <f>IF(OR(follower_tracker!J51=0,follower_tracker!J50=0),0,follower_tracker!J51-follower_tracker!J50)</f>
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="K50" s="4">
         <f>IF(OR(follower_tracker!K51=0,follower_tracker!K50=0),0,follower_tracker!K51-follower_tracker!K50)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="4">
         <f>IF(OR(follower_tracker!L51=0,follower_tracker!L50=0),0,follower_tracker!L51-follower_tracker!L50)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M50" s="4">
         <f>IF(OR(follower_tracker!M51=0,follower_tracker!M50=0),0,follower_tracker!M51-follower_tracker!M50)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="4">
         <f>IF(OR(follower_tracker!N51=0,follower_tracker!N50=0),0,follower_tracker!N51-follower_tracker!N50)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -26225,7 +26294,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26561,55 +26630,55 @@
     <row r="9" spans="1:13">
       <c r="A9">
         <f>SUM(A2:A8)/(LOOKUP(9.99E+307, follower_tracker!B:B)-SUM(A2:A8))</f>
-        <v>0.11491181186531267</v>
+        <v>0.11345646437994723</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B8)/(LOOKUP(9.99E+307, follower_tracker!C:C)-SUM(B2:B8))</f>
-        <v>1.3629136064208375E-3</v>
+        <v>1.3629755270172037E-3</v>
       </c>
       <c r="C9">
         <f>SUM(C2:C8)/(LOOKUP(9.99E+307, follower_tracker!D:D)-SUM(C2:C8))</f>
-        <v>8.4591385916790544E-3</v>
+        <v>8.4554206781079951E-3</v>
       </c>
       <c r="D9">
         <f>SUM(D2:D8)/(LOOKUP(9.99E+307, follower_tracker!E:E)-SUM(D2:D8))</f>
-        <v>3.0817249049293248E-2</v>
+        <v>3.06888010289144E-2</v>
       </c>
       <c r="E9">
         <f>SUM(E2:E8)/(LOOKUP(9.99E+307, follower_tracker!F:F)-SUM(E2:E8))</f>
-        <v>2.4408212947243664E-2</v>
+        <v>2.4337116977853863E-2</v>
       </c>
       <c r="F9">
         <f>SUM(F2:F8)/(LOOKUP(9.99E+307, follower_tracker!G:G)-SUM(F2:F8))</f>
-        <v>3.9148081874918167E-2</v>
+        <v>3.9001695725901127E-2</v>
       </c>
       <c r="G9">
         <f>SUM(G2:G8)/(LOOKUP(9.99E+307, follower_tracker!H:H)-SUM(G2:G8))</f>
-        <v>9.6910060009691007E-4</v>
+        <v>9.6888392025340042E-4</v>
       </c>
       <c r="H9">
         <f>SUM(H2:H8)/(LOOKUP(9.99E+307, follower_tracker!I:I)-SUM(H2:H8))</f>
-        <v>5.9350454505339338E-3</v>
+        <v>5.9322968353732498E-3</v>
       </c>
       <c r="I9">
         <f>SUM(I2:I8)/(LOOKUP(9.99E+307, follower_tracker!J:J)-SUM(I2:I8))</f>
-        <v>4.6603832643550237E-3</v>
+        <v>4.6624913013221993E-3</v>
       </c>
       <c r="J9">
         <f>SUM(J2:J8)/(LOOKUP(9.99E+307, follower_tracker!K:K)-SUM(J2:J8))</f>
-        <v>5.1966578357448539E-3</v>
+        <v>5.195069776917592E-3</v>
       </c>
       <c r="K9">
         <f>SUM(K2:K8)/(LOOKUP(9.99E+307, follower_tracker!L:L)-SUM(K2:K8))</f>
-        <v>1.9913850949154744E-3</v>
+        <v>1.9909972299168976E-3</v>
       </c>
       <c r="L9">
         <f>SUM(L2:L8)/(LOOKUP(9.99E+307, follower_tracker!M:M)-SUM(L2:L8))</f>
-        <v>3.4563634119244538E-3</v>
+        <v>3.455936805726981E-3</v>
       </c>
       <c r="M9">
         <f>SUM(M2:M8)/(LOOKUP(9.99E+307, follower_tracker!N:N)-SUM(M2:M8))</f>
-        <v>-5.9569398349076669E-4</v>
+        <v>-5.9544062606328686E-4</v>
       </c>
     </row>
     <row r="10" spans="1:13">
